--- a/FSR.xlsx
+++ b/FSR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmatyash\!Scripts\IB_Accounts_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B503BEF9-C6BE-4DCF-8347-806BD1123282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24B365E-8DED-4175-916E-462723F80410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Telma Dias</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Rocio Ibañez</t>
   </si>
   <si>
-    <t>Juan Bernal Jimenez</t>
-  </si>
-  <si>
     <t>Lourdes Martin</t>
   </si>
   <si>
@@ -99,6 +96,48 @@
   </si>
   <si>
     <t>FSR</t>
+  </si>
+  <si>
+    <t>Ana Cristina Soto Ruvalcaba</t>
+  </si>
+  <si>
+    <t>Carlos Vargas</t>
+  </si>
+  <si>
+    <t>Eduardo  Artero</t>
+  </si>
+  <si>
+    <t>Gema Llorente</t>
+  </si>
+  <si>
+    <t>Luis Moran</t>
+  </si>
+  <si>
+    <t>Manuela Martin</t>
+  </si>
+  <si>
+    <t>Maria Dolores Redondo</t>
+  </si>
+  <si>
+    <t>Marta Sanchez</t>
+  </si>
+  <si>
+    <t>Nicolás Capelastegui Rojo</t>
+  </si>
+  <si>
+    <t>Susana Gonzalez</t>
+  </si>
+  <si>
+    <t>Asier Garcia Doncel</t>
+  </si>
+  <si>
+    <t>Lara Morote Moreno</t>
+  </si>
+  <si>
+    <t>Jose Antonio Gragera Cano</t>
+  </si>
+  <si>
+    <t>Julio Jesus Martinez Romero</t>
   </si>
 </sst>
 </file>
@@ -114,12 +153,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,8 +179,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -154,10 +200,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD790BAB-1832-4B1F-8565-366711C96D88}" name="FSR" displayName="FSR" ref="A1:A21" totalsRowShown="0">
-  <autoFilter ref="A1:A21" xr:uid="{FD790BAB-1832-4B1F-8565-366711C96D88}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A21">
-    <sortCondition ref="A1:A21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD790BAB-1832-4B1F-8565-366711C96D88}" name="FSR" displayName="FSR" ref="A1:A34" totalsRowShown="0">
+  <autoFilter ref="A1:A34" xr:uid="{FD790BAB-1832-4B1F-8565-366711C96D88}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">
+    <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{2D85258B-F867-41C3-8B6D-41A09176F79B}" name="FSR"/>
@@ -429,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -437,12 +483,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -452,97 +498,162 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="A4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
+      <c r="A18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/FSR.xlsx
+++ b/FSR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmatyash\!Scripts\IB_Accounts_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24B365E-8DED-4175-916E-462723F80410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED672FF1-DC3A-45C3-A6D1-10FD024CCA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Telma Dias</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>FSR</t>
-  </si>
-  <si>
-    <t>Ana Cristina Soto Ruvalcaba</t>
   </si>
   <si>
     <t>Carlos Vargas</t>
@@ -200,10 +197,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD790BAB-1832-4B1F-8565-366711C96D88}" name="FSR" displayName="FSR" ref="A1:A34" totalsRowShown="0">
-  <autoFilter ref="A1:A34" xr:uid="{FD790BAB-1832-4B1F-8565-366711C96D88}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">
-    <sortCondition ref="A1:A34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD790BAB-1832-4B1F-8565-366711C96D88}" name="FSR" displayName="FSR" ref="A1:A33" totalsRowShown="0">
+  <autoFilter ref="A1:A33" xr:uid="{FD790BAB-1832-4B1F-8565-366711C96D88}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A33">
+    <sortCondition ref="A1:A33"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{2D85258B-F867-41C3-8B6D-41A09176F79B}" name="FSR"/>
@@ -475,11 +472,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -502,93 +497,93 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
+      <c r="A17" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
+      <c r="A18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -607,52 +602,47 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
